--- a/util/Pfam-A.regions.uniprot.tsv-stats.xlsx
+++ b/util/Pfam-A.regions.uniprot.tsv-stats.xlsx
@@ -2630,7 +2630,7 @@
   <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="O17" sqref="I17:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
